--- a/classfiers/mega/randomForest/mega-randomForest-results.xlsx
+++ b/classfiers/mega/randomForest/mega-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998873873873874</v>
+        <v>0.9998655190962883</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7833333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998536036036036</v>
+        <v>0.9982517482517482</v>
       </c>
     </row>
     <row r="4">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974698102357678</v>
+        <v>0.9964221824686941</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9435384615384615</v>
+        <v>0.9891891891891891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9575354609929076</v>
+        <v>0.9536997885835096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9467366274675244</v>
+        <v>0.9704022988505747</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991786467318382</v>
+        <v>0.9989078899633462</v>
       </c>
     </row>
   </sheetData>
